--- a/KiCad percages.xlsx
+++ b/KiCad percages.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\cloud\07_PCB\KiCad_EsseivaN_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF72DC77-DC14-42A7-BA98-A83BD4FC0CB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129C2060-24A8-4122-A801-C1BBD0CC8FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{DE439580-050F-46F2-8056-95B4A05B1B51}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11280" xr2:uid="{DE439580-050F-46F2-8056-95B4A05B1B51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -58,7 +68,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,6 +87,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -90,10 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,20 +428,20 @@
   <dimension ref="C3:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.81640625" customWidth="1"/>
+    <col min="5" max="5" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.453125" customWidth="1"/>
+    <col min="7" max="7" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -438,11 +455,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>0.5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f>SQRT(2*C4*C4)</f>
         <v>0.70710678118654757</v>
       </c>
@@ -453,23 +470,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E7" s="1">
         <f>E4+G4</f>
         <v>0.80710678118654755</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E10" s="2">
         <f>E7+H4*0.0254</f>
         <v>1.5691067811865476</v>
